--- a/Exercise1/SampleExcel.xlsx
+++ b/Exercise1/SampleExcel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Documents\UiPath\Exercise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED4E85-0A7C-4B3F-9448-5FDB0233DC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F34F3-9AA0-4A63-9023-115D0790C405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1125" yWindow="1125" windowWidth="6165" windowHeight="4545" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="13170" yWindow="1665" windowWidth="13290" windowHeight="11760" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="2IL" sheetId="8" r:id="rId2"/>
-    <x:sheet name="Ordered2IL" sheetId="9" r:id="rId3"/>
+    <x:sheet name="1CA" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Ordered1CA" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -464,250 +464,6 @@
   </x:sheetPr>
   <x:dimension ref="A1:C9"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C9" sqref="C9 C9:C9"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="13.570312" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="11.425781" style="2" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C9"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{1D211C11-5507-4CA6-9059-C2AE65B9A8D5}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C9"/>
-  <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="C9" sqref="C9 C9:C9"/>
     </x:sheetView>
@@ -731,24 +487,24 @@
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,24 +520,24 @@
     </x:row>
     <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,29 +553,190 @@
     </x:row>
     <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
